--- a/dev/text/ministry/Page Number Finder.xlsx
+++ b/dev/text/ministry/Page Number Finder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\ministry\dev\text\ministry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DDECF8DD-2FB7-4298-AC1D-C8EC871D8016}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0754E4D1-C1A3-4CA1-A41A-16278E064EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2892" yWindow="2892" windowWidth="17280" windowHeight="8880" xr2:uid="{78E5F7DC-C11E-49DB-B1EE-13CE08E681FE}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{78E5F7DC-C11E-49DB-B1EE-13CE08E681FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,413 +36,1960 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="133">
-  <si>
-    <t>HAVING RESPECT TO THE RECOMPEN</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="651" uniqueCount="651">
   <si>
     <t>{246}</t>
   </si>
   <si>
-    <t>here is prepared to commit him</t>
-  </si>
-  <si>
     <t>{247}</t>
   </si>
   <si>
-    <t>carry, there will be sorrows t</t>
-  </si>
-  <si>
     <t>{248}</t>
   </si>
   <si>
-    <t>but let us have respect to the</t>
-  </si>
-  <si>
     <t>{249}</t>
   </si>
   <si>
-    <t>meeting.  Do brothers all fill</t>
-  </si>
-  <si>
     <t>{250}</t>
   </si>
   <si>
-    <t>to the Lord Jesus; His death p</t>
-  </si>
-  <si>
     <t>{251}</t>
   </si>
   <si>
-    <t>WISDOM</t>
-  </si>
-  <si>
     <t>{252}</t>
   </si>
   <si>
-    <t>We come to the verse we read i</t>
-  </si>
-  <si>
     <t>{253}</t>
   </si>
   <si>
-    <t>James helps us in this; becaus</t>
-  </si>
-  <si>
     <t>{254}</t>
   </si>
   <si>
-    <t>BEING SERVICEABLE</t>
-  </si>
-  <si>
     <t>{255}</t>
   </si>
   <si>
-    <t>Gen 18: 19.  He was one in who</t>
-  </si>
-  <si>
     <t>{256}</t>
   </si>
   <si>
-    <t>pleasure to the heart of the b</t>
-  </si>
-  <si>
     <t>{257}</t>
   </si>
   <si>
-    <t>had in his soul, that in spite</t>
-  </si>
-  <si>
     <t>{258}</t>
   </si>
   <si>
-    <t>finished, but what attracted M</t>
-  </si>
-  <si>
     <t>{259}</t>
   </si>
   <si>
-    <t>exalted!  Then he saw seraphim</t>
-  </si>
-  <si>
     <t>{260}</t>
   </si>
   <si>
-    <t>serviceable to the Lord.  We c</t>
-  </si>
-  <si>
     <t>{261}</t>
   </si>
   <si>
-    <t>DEVOTION AND COMMITTAL</t>
-  </si>
-  <si>
     <t>{262}</t>
   </si>
   <si>
-    <t>These women are in the divine</t>
-  </si>
-  <si>
     <t>{263}</t>
   </si>
   <si>
-    <t>appointments?  Do we regard th</t>
-  </si>
-  <si>
     <t>{264}</t>
   </si>
   <si>
     <t>{265}</t>
   </si>
   <si>
-    <t>blood of Jesus Christ".  We ha</t>
-  </si>
-  <si>
     <t>{266}</t>
   </si>
   <si>
-    <t>he exhorts: "Having purified y</t>
-  </si>
-  <si>
     <t>{267}</t>
   </si>
   <si>
-    <t>be watchful dear brethren, for</t>
-  </si>
-  <si>
     <t>{268}</t>
   </si>
   <si>
-    <t>towards the brethren and that</t>
-  </si>
-  <si>
     <t>{269}</t>
   </si>
   <si>
-    <t>you bind on humility"; he does</t>
-  </si>
-  <si>
     <t>{270}</t>
   </si>
   <si>
-    <t>one another with a kiss of lov</t>
-  </si>
-  <si>
     <t>{271}</t>
   </si>
   <si>
-    <t>SIX MEN OF FAITH</t>
-  </si>
-  <si>
     <t>{272}</t>
   </si>
   <si>
-    <t>coupled with other nations, th</t>
-  </si>
-  <si>
     <t>{273}</t>
   </si>
   <si>
-    <t>book.  And here they come agai</t>
-  </si>
-  <si>
     <t>{274}</t>
   </si>
   <si>
-    <t>about his exploits.  The Spiri</t>
-  </si>
-  <si>
     <t>{275}</t>
   </si>
   <si>
-    <t>settled, we might be a little</t>
-  </si>
-  <si>
     <t>{276}</t>
   </si>
   <si>
-    <t>Jephthah was not confused.  Ot</t>
-  </si>
-  <si>
     <t>{277}</t>
   </si>
   <si>
-    <t>Lastly we have Samuel, who was</t>
-  </si>
-  <si>
     <t>{278}</t>
   </si>
   <si>
-    <t>THE PROVING OF YOUR FAITH</t>
-  </si>
-  <si>
     <t>{279}</t>
   </si>
   <si>
-    <t>we should be strong in faith,</t>
-  </si>
-  <si>
     <t>{280}</t>
   </si>
   <si>
-    <t>May we all be supported and st</t>
-  </si>
-  <si>
     <t>{281}</t>
   </si>
   <si>
-    <t>WHATEVER HE MAY SAY TO YOU, D	{282}_x000D_
-His rightful place.  There is	{283}_x000D_
-in ministry can be spoken of a	{284}_x000D_
-THE LORD'S PERSONAL INTEREST A	{285}_x000D_
-Our brother was the subject of	{286}_x000D_
-THE LORD'S DIRECTION	{287}_x000D_
-they had been away into the ci	{288}_x000D_
-from Abel onwards (the first t	{289}_x000D_
-was a command, Make the men s</t>
-  </si>
-  <si>
     <t>{290}</t>
   </si>
   <si>
-    <t>importance of it in the absenc</t>
-  </si>
-  <si>
     <t>{291}</t>
   </si>
   <si>
-    <t>Son.  We have His breath, we h</t>
-  </si>
-  <si>
     <t>{292}</t>
   </si>
   <si>
-    <t>THE GOOD PART</t>
-  </si>
-  <si>
     <t>{294}</t>
   </si>
   <si>
-    <t>Lord, listening to Him.  I won</t>
-  </si>
-  <si>
     <t>{295}</t>
   </si>
   <si>
-    <t>commends, and Mary chose that</t>
-  </si>
-  <si>
     <t>{296}</t>
   </si>
   <si>
-    <t>He does not say, Pray to me; H</t>
-  </si>
-  <si>
     <t>{297}</t>
   </si>
   <si>
-    <t>or say anything, if we write a</t>
-  </si>
-  <si>
     <t>{298}</t>
   </si>
   <si>
-    <t>yoke.  "He that hates his life</t>
-  </si>
-  <si>
     <t>{299}</t>
   </si>
   <si>
-    <t>first reference in this gospel</t>
-  </si>
-  <si>
     <t>{300}</t>
   </si>
   <si>
-    <t>SUBJECTS OF THE LORD'S INTERES</t>
-  </si>
-  <si>
     <t>{301}</t>
   </si>
   <si>
-    <t>intelligence to which the Lord</t>
-  </si>
-  <si>
     <t>{302}</t>
   </si>
   <si>
-    <t>J.R.  It seems to me that when</t>
-  </si>
-  <si>
     <t>{303}</t>
   </si>
   <si>
-    <t>seen to.  From that side came</t>
-  </si>
-  <si>
     <t>{304}</t>
   </si>
   <si>
-    <t>H.A.H.  The hands were the han</t>
-  </si>
-  <si>
     <t>{305}</t>
   </si>
   <si>
-    <t>J.R.  Exactly.  It is a person</t>
-  </si>
-  <si>
     <t>{306}</t>
   </si>
   <si>
-    <t>it would bring in liberty, as</t>
-  </si>
-  <si>
     <t>{307}</t>
   </si>
   <si>
-    <t>the Lord here.  Do you think t</t>
-  </si>
-  <si>
     <t>{308}</t>
   </si>
   <si>
-    <t>Lord in relation to the assemb</t>
-  </si>
-  <si>
     <t>{309}</t>
   </si>
   <si>
-    <t>they recognised Him they say "</t>
-  </si>
-  <si>
     <t>{310}</t>
   </si>
   <si>
-    <t>made the stars; I often wonder</t>
-  </si>
-  <si>
     <t>{311}</t>
   </si>
   <si>
-    <t>D.J.H.  So Lazarus was one of</t>
-  </si>
-  <si>
     <t>{312}</t>
   </si>
   <si>
-    <t>a resurrection scene it does n</t>
-  </si>
-  <si>
     <t>{313}</t>
   </si>
   <si>
-    <t>wiped His feet with her hair w</t>
-  </si>
-  <si>
     <t>{314}</t>
   </si>
   <si>
-    <t>THE LORD'S VICTORY AND HIS SYM</t>
-  </si>
-  <si>
     <t>{315}</t>
   </si>
   <si>
-    <t>live in His life, and it all r</t>
-  </si>
-  <si>
     <t>{316}</t>
   </si>
   <si>
-    <t>be to us, how deep His feeling</t>
-  </si>
-  <si>
     <t>{317}</t>
   </si>
   <si>
-    <t>KNOWN OF GOD</t>
-  </si>
-  <si>
     <t>{318}</t>
   </si>
   <si>
-    <t>would like to be assured that</t>
-  </si>
-  <si>
     <t>{319}</t>
   </si>
   <si>
-    <t>the other.  This is important</t>
-  </si>
-  <si>
     <t>{320}</t>
   </si>
   <si>
-    <t>church is taken.  It was all o</t>
-  </si>
-  <si>
     <t>{321}</t>
+  </si>
+  <si>
+    <t>dependence and insufficiency would help us as attention is c</t>
+  </si>
+  <si>
+    <t>{13}</t>
+  </si>
+  <si>
+    <t>pleasure, but if we have a sense of insufficiency we will ma</t>
+  </si>
+  <si>
+    <t>{14}</t>
+  </si>
+  <si>
+    <t>A FULL ANSWER TO GOD'S THOUGHTS</t>
+  </si>
+  <si>
+    <t>{15}</t>
+  </si>
+  <si>
+    <t>have to distinguish between the flesh and the natural.  The</t>
+  </si>
+  <si>
+    <t>{16}</t>
+  </si>
+  <si>
+    <t>brethren to dwell together in unity!" There the Lord command</t>
+  </si>
+  <si>
+    <t>{17}</t>
+  </si>
+  <si>
+    <t>We read about Moses.  Moses had been brought up in Pharaoh's</t>
+  </si>
+  <si>
+    <t>{18}</t>
+  </si>
+  <si>
+    <t>Zipporah, he was given Zipporah and he consented.  How impor</t>
+  </si>
+  <si>
+    <t>{19}</t>
+  </si>
+  <si>
+    <t>Jehovah?" He is saying, Is it such a one as I that has come</t>
+  </si>
+  <si>
+    <t>{20}</t>
+  </si>
+  <si>
+    <t>BEING AVAILABLE FOR THE LORD AT THE MOMENT</t>
+  </si>
+  <si>
+    <t>{21}</t>
+  </si>
+  <si>
+    <t>Lord.  Then look out on the world around us, there is hardly</t>
+  </si>
+  <si>
+    <t>{22}</t>
+  </si>
+  <si>
+    <t>Lord will not lose one of His own; knowing all the things th</t>
+  </si>
+  <si>
+    <t>{23}</t>
+  </si>
+  <si>
+    <t>humble.  But there need not be anything on anybody's conscie</t>
+  </si>
+  <si>
+    <t>{24}</t>
+  </si>
+  <si>
+    <t>very moment when he was needed.  This is a moment when each</t>
+  </si>
+  <si>
+    <t>{25}</t>
+  </si>
+  <si>
+    <t>We sometimes sing:</t>
+  </si>
+  <si>
+    <t>{26}</t>
+  </si>
+  <si>
+    <t>such a thing as this going on at the present time?  Would th</t>
+  </si>
+  <si>
+    <t>{27}</t>
+  </si>
+  <si>
+    <t>ready to say, Here am I, in view of the Lord's appeal to us</t>
+  </si>
+  <si>
+    <t>{28}</t>
+  </si>
+  <si>
+    <t>THE LORD LOOKING</t>
+  </si>
+  <si>
+    <t>{29}</t>
+  </si>
+  <si>
+    <t>bounty and blessings that God has in mind for us.  When we o</t>
+  </si>
+  <si>
+    <t>{30}</t>
+  </si>
+  <si>
+    <t>I have read these scriptures which speak of the Lord looking</t>
+  </si>
+  <si>
+    <t>{31}</t>
+  </si>
+  <si>
+    <t>a question of what God is doing.  Peter became a follower of</t>
+  </si>
+  <si>
+    <t>{32}</t>
+  </si>
+  <si>
+    <t>his disciples"; would another thing hinder another one?  The</t>
+  </si>
+  <si>
+    <t>{33}</t>
+  </si>
+  <si>
+    <t>got himself into a difficult situation which he was not able</t>
+  </si>
+  <si>
+    <t>{34}</t>
+  </si>
+  <si>
+    <t>time, but the Lord has not failed us and never will fail us.</t>
+  </si>
+  <si>
+    <t>{35}</t>
+  </si>
+  <si>
+    <t>OCCUPATION WITH OUR LORD JESUS CHRIST</t>
+  </si>
+  <si>
+    <t>{36}</t>
+  </si>
+  <si>
+    <t>at the moment is testimony to what will yet be public when t</t>
+  </si>
+  <si>
+    <t>{37}</t>
+  </si>
+  <si>
+    <t>hearts of course, the hope of the church, is the actual comi</t>
+  </si>
+  <si>
+    <t>{38}</t>
+  </si>
+  <si>
+    <t>not hold anything against us.  He is ready to forgive; but t</t>
+  </si>
+  <si>
+    <t>{39}</t>
+  </si>
+  <si>
+    <t>other side of the lake; and they set off from shore", that i</t>
+  </si>
+  <si>
+    <t>{40}</t>
+  </si>
+  <si>
+    <t>and leaves things with us, nevertheless, He is in control.</t>
+  </si>
+  <si>
+    <t>{41}</t>
+  </si>
+  <si>
+    <t>may come in both.  It shows how ready the Lord is to come ne</t>
+  </si>
+  <si>
+    <t>{42}</t>
+  </si>
+  <si>
+    <t>affections, not only food for our minds but food for our hea</t>
+  </si>
+  <si>
+    <t>{43}</t>
+  </si>
+  <si>
+    <t>Then may we be helped to appreciate more the One who consist</t>
+  </si>
+  <si>
+    <t>{44}</t>
+  </si>
+  <si>
+    <t>PERSONS WHO ARE BLESSED</t>
+  </si>
+  <si>
+    <t>{45}</t>
+  </si>
+  <si>
+    <t>and confidence shall be your strength".  May every one of us</t>
+  </si>
+  <si>
+    <t>{46}</t>
+  </si>
+  <si>
+    <t>may be fruit for God, and we would thus have our own happy,</t>
+  </si>
+  <si>
+    <t>{47}</t>
+  </si>
+  <si>
+    <t>BABES AS PRESENTED IN SCRIPTURE</t>
+  </si>
+  <si>
+    <t>{48}</t>
+  </si>
+  <si>
+    <t>with their titles, miss all this.  The Lord says, "I praise</t>
+  </si>
+  <si>
+    <t>{49}</t>
+  </si>
+  <si>
+    <t>He does not say what these things are, but they were the thi</t>
+  </si>
+  <si>
+    <t>{50}</t>
+  </si>
+  <si>
+    <t>penetrate although we know Him as our Lord Jesus.  We are at</t>
+  </si>
+  <si>
+    <t>{51}</t>
+  </si>
+  <si>
+    <t>all evil speakings", these things have to be laid aside.  Th</t>
+  </si>
+  <si>
+    <t>{52}</t>
+  </si>
+  <si>
+    <t>mental milk of the word, we would all be together.  It is th</t>
+  </si>
+  <si>
+    <t>{53}</t>
+  </si>
+  <si>
+    <t>according to this setting.  It was a reproach to these belie</t>
+  </si>
+  <si>
+    <t>{54}</t>
+  </si>
+  <si>
+    <t>20, "Brethren, be not children in your minds", and that word</t>
+  </si>
+  <si>
+    <t>{55}</t>
+  </si>
+  <si>
+    <t>according to Matthew 11 and Luke 10 and 1 Peter 2; but child</t>
+  </si>
+  <si>
+    <t>{56}</t>
+  </si>
+  <si>
+    <t>THE WARS OF CANAAN</t>
+  </si>
+  <si>
+    <t>{57}</t>
+  </si>
+  <si>
+    <t>promise of God.  Corresponding with the book of Joshua, thin</t>
+  </si>
+  <si>
+    <t>{58}</t>
+  </si>
+  <si>
+    <t>is when the struggle comes to our locality, when we are invo</t>
+  </si>
+  <si>
+    <t>{59}</t>
+  </si>
+  <si>
+    <t>faith, salvation, the sword of the Spirit, prayer, "praying</t>
+  </si>
+  <si>
+    <t>{60}</t>
+  </si>
+  <si>
+    <t>JESUS AS SAVIOUR, LORD AND TEACHER</t>
+  </si>
+  <si>
+    <t>{61}</t>
+  </si>
+  <si>
+    <t>was forsaken of God; sustained God's righteous wrath, which</t>
+  </si>
+  <si>
+    <t>{62}</t>
+  </si>
+  <si>
+    <t>worldly things appeal to you, but as you know the Lord Jesus</t>
+  </si>
+  <si>
+    <t>{63}</t>
+  </si>
+  <si>
+    <t>righteousness which is in the law, found blameless"; these a</t>
+  </si>
+  <si>
+    <t>{64}</t>
+  </si>
+  <si>
+    <t>Jesus as Lord, you will never regret.  I have never known an</t>
+  </si>
+  <si>
+    <t>{65}</t>
+  </si>
+  <si>
+    <t>has healed thee.  And he saw immediately, and followed him i</t>
+  </si>
+  <si>
+    <t>{66}</t>
+  </si>
+  <si>
+    <t>consciousness of sonship "my Father", but He also said, "you</t>
+  </si>
+  <si>
+    <t>{67}</t>
+  </si>
+  <si>
+    <t>THE VALUE OF WHAT IS IN THE BODY</t>
+  </si>
+  <si>
+    <t>{68}</t>
+  </si>
+  <si>
+    <t>Christ, and Abigail was the result of that kind of ministry.</t>
+  </si>
+  <si>
+    <t>{69}</t>
+  </si>
+  <si>
+    <t>David recognised it, he listened, and there was a saving of</t>
+  </si>
+  <si>
+    <t>{70}</t>
+  </si>
+  <si>
+    <t>when they saw Amasa.  There was in this chapter the main iss</t>
+  </si>
+  <si>
+    <t>{71}</t>
+  </si>
+  <si>
+    <t>of the heavens, and suffered neither the fowl of the heavens</t>
+  </si>
+  <si>
+    <t>{72}</t>
+  </si>
+  <si>
+    <t>the damsel was very fair; and cherished the king, and minist</t>
+  </si>
+  <si>
+    <t>{73}</t>
+  </si>
+  <si>
+    <t>OUR HEARTS AND OUR FEET</t>
+  </si>
+  <si>
+    <t>{74}</t>
+  </si>
+  <si>
+    <t>Colossians 1 of his outlook—"Whom we announce, admonishing e</t>
+  </si>
+  <si>
+    <t>{75}</t>
+  </si>
+  <si>
+    <t>them, he shall be a vessel to honour, sanctified ...".  Bein</t>
+  </si>
+  <si>
+    <t>{76}</t>
+  </si>
+  <si>
+    <t>May the Lord encourage us.  What is needed at the moment is</t>
+  </si>
+  <si>
+    <t>{77}</t>
+  </si>
+  <si>
+    <t>THE LORD JESUS AS MASTER</t>
+  </si>
+  <si>
+    <t>{78}</t>
+  </si>
+  <si>
+    <t>Those of us who are older are looking for the Lord to come;</t>
+  </si>
+  <si>
+    <t>{79}</t>
+  </si>
+  <si>
+    <t>present time?  Is it not a feature of young people at the pr</t>
+  </si>
+  <si>
+    <t>{80}</t>
+  </si>
+  <si>
+    <t>Now this Master is presented in 2 Timothy as Christ Jesus.</t>
+  </si>
+  <si>
+    <t>{81}</t>
+  </si>
+  <si>
+    <t>Satan's system, or you are helping to build up the system of</t>
+  </si>
+  <si>
+    <t>{82}</t>
+  </si>
+  <si>
+    <t>serviceable to the Master".  Oh, would you not like to be se</t>
+  </si>
+  <si>
+    <t>{83}</t>
+  </si>
+  <si>
+    <t>grow in the knowledge of Him.  There is no other way, becaus</t>
+  </si>
+  <si>
+    <t>{84}</t>
+  </si>
+  <si>
+    <t>every one here individually to address the Lord Jesus as ‘Ma</t>
+  </si>
+  <si>
+    <t>{85}</t>
+  </si>
+  <si>
+    <t>THE WAY OF LOVE</t>
+  </si>
+  <si>
+    <t>{86}</t>
+  </si>
+  <si>
+    <t>hands.  It is the way of love, dear brethren.  Maybe we are</t>
+  </si>
+  <si>
+    <t>{87}</t>
+  </si>
+  <si>
+    <t>J.R.  I understand it was a custom in those days that, when</t>
+  </si>
+  <si>
+    <t>{88}</t>
+  </si>
+  <si>
+    <t>E.C.B.  I wonder sometimes whether we put the other side fir</t>
+  </si>
+  <si>
+    <t>{89}</t>
+  </si>
+  <si>
+    <t>J.R.   I think so.  It looks as though the Lord washed Judas</t>
+  </si>
+  <si>
+    <t>{90}</t>
+  </si>
+  <si>
+    <t>RESOURCES AVAILABLE IN LOCALITIES</t>
+  </si>
+  <si>
+    <t>{1}</t>
+  </si>
+  <si>
+    <t>in persons to fill out what is in His mind.  But what a deli</t>
+  </si>
+  <si>
+    <t>{2}</t>
+  </si>
+  <si>
+    <t>A.P.D.  Is it of interest that in Acts 18 Paul was teaching</t>
+  </si>
+  <si>
+    <t>{3}</t>
+  </si>
+  <si>
+    <t>B.T.  Does that link with, "If any one speak—as oracles of G</t>
+  </si>
+  <si>
+    <t>{4}</t>
+  </si>
+  <si>
+    <t>chapter 12 the body, as if Paul said, This will always exist</t>
+  </si>
+  <si>
+    <t>{5}</t>
+  </si>
+  <si>
+    <t>J.R.  It is how we work out things in our own life.  This re</t>
+  </si>
+  <si>
+    <t>{6}</t>
+  </si>
+  <si>
+    <t>a sign gift that was prominent at the early part of the disp</t>
+  </si>
+  <si>
+    <t>{7}</t>
+  </si>
+  <si>
+    <t>J.R.   Exactly.  So we come to 2 Kings, this incident in Jer</t>
+  </si>
+  <si>
+    <t>{8}</t>
+  </si>
+  <si>
+    <t>salt; it was a question of putting the salt into the new cru</t>
+  </si>
+  <si>
+    <t>{9}</t>
+  </si>
+  <si>
+    <t>J.R.  So the new cruse would go back to new birth, I suppose</t>
+  </si>
+  <si>
+    <t>{10}</t>
+  </si>
+  <si>
+    <t>in pursuing this line of more for God and what is new and wh</t>
+  </si>
+  <si>
+    <t>{11}</t>
+  </si>
+  <si>
+    <t>feeling it too and the prophet was helping her through.  I d</t>
+  </si>
+  <si>
+    <t>{12}</t>
+  </si>
+  <si>
+    <t>visiting a brother or a sister with a purpose, and it seems</t>
+  </si>
+  <si>
+    <t>{91}</t>
+  </si>
+  <si>
+    <t>lifted up the serpent ... thus must the Son of man be lifted</t>
+  </si>
+  <si>
+    <t>{92}</t>
+  </si>
+  <si>
+    <t>E.C.B.  What was drawn attention to is important though, is</t>
+  </si>
+  <si>
+    <t>{93}</t>
+  </si>
+  <si>
+    <t>R.E.T.  "As I have done to you" is the way things are done.</t>
+  </si>
+  <si>
+    <t>{94}</t>
+  </si>
+  <si>
+    <t>he thought he had come to see him on the basis of Matthew 18</t>
+  </si>
+  <si>
+    <t>{95}</t>
+  </si>
+  <si>
+    <t>presence of all of them.  Would you say a little as to that</t>
+  </si>
+  <si>
+    <t>{96}</t>
+  </si>
+  <si>
+    <t>you read, whether the standard has not been raised now.  "As</t>
+  </si>
+  <si>
+    <t>{97}</t>
+  </si>
+  <si>
+    <t>D.E.R.  That is love not on a natural level, nor on a social</t>
+  </si>
+  <si>
+    <t>{98}</t>
+  </si>
+  <si>
+    <t>for those who believe on me through their word" (that would</t>
+  </si>
+  <si>
+    <t>{99}</t>
+  </si>
+  <si>
+    <t>D.E.B.  Love springs from the heart, not from the head.  The</t>
+  </si>
+  <si>
+    <t>{100}</t>
+  </si>
+  <si>
+    <t>does not rejoice at iniquity".  These negative features are</t>
+  </si>
+  <si>
+    <t>{101}</t>
+  </si>
+  <si>
+    <t>E.C.B.  These things are complementary to, and the working o</t>
+  </si>
+  <si>
+    <t>{102}</t>
+  </si>
+  <si>
+    <t>J.R.  Quite so.  Sacrificial love could affect me more.</t>
+  </si>
+  <si>
+    <t>{103}</t>
+  </si>
+  <si>
+    <t>{104}</t>
+  </si>
+  <si>
+    <t>IF ANYONE SERVE ME</t>
+  </si>
+  <si>
+    <t>{105}</t>
+  </si>
+  <si>
+    <t>own home.  What a privilege to be where the Lord is!  May it</t>
+  </si>
+  <si>
+    <t>{106}</t>
+  </si>
+  <si>
+    <t>he is true to his impression of the Lord Jesus.  The neighbo</t>
+  </si>
+  <si>
+    <t>{107}</t>
+  </si>
+  <si>
+    <t>of us.  The inside position is privilege; we go inside to co</t>
+  </si>
+  <si>
+    <t>{108}</t>
+  </si>
+  <si>
+    <t>answered at Pentecost, but the Lord would still long to see</t>
+  </si>
+  <si>
+    <t>{109}</t>
+  </si>
+  <si>
+    <t>requesting that the Father honour persons who have served an</t>
+  </si>
+  <si>
+    <t>{110}</t>
+  </si>
+  <si>
+    <t>THE LORD JESUS AS PROPHET</t>
+  </si>
+  <si>
+    <t>{111}</t>
+  </si>
+  <si>
+    <t>help us to face our whole history, not only to our satisfact</t>
+  </si>
+  <si>
+    <t>{112}</t>
+  </si>
+  <si>
+    <t>watch, remembering that for three years, night and day, I ce</t>
+  </si>
+  <si>
+    <t>{113}</t>
+  </si>
+  <si>
+    <t>chapter 10 the Lord speaks of the flock, in which this man w</t>
+  </si>
+  <si>
+    <t>{114}</t>
+  </si>
+  <si>
+    <t>GARRISONS</t>
+  </si>
+  <si>
+    <t>{115}</t>
+  </si>
+  <si>
+    <t>every understanding, shall guard"—or as in the Authorised Ve</t>
+  </si>
+  <si>
+    <t>{116}</t>
+  </si>
+  <si>
+    <t>promotion, some importance; how subtle it is!  The same elem</t>
+  </si>
+  <si>
+    <t>{117}</t>
+  </si>
+  <si>
+    <t>his father had taken".  That was something recovered; we nee</t>
+  </si>
+  <si>
+    <t>{118}</t>
+  </si>
+  <si>
+    <t>Great care was taken about Ephesus, for Ephesus represents t</t>
+  </si>
+  <si>
+    <t>{119}</t>
+  </si>
+  <si>
+    <t>Paul combated.  "Epaphras, who is one of you, the bondman of</t>
+  </si>
+  <si>
+    <t>{120}</t>
+  </si>
+  <si>
+    <t>THE LORD'S INTEREST IN LOCALITIES</t>
+  </si>
+  <si>
+    <t>{121}</t>
+  </si>
+  <si>
+    <t>J.A.P.  That is reinforced by the Lord Jesus Himself.  In Ma</t>
+  </si>
+  <si>
+    <t>{122}</t>
+  </si>
+  <si>
+    <t>Him to form what He has in mind.  It is an advantage to us t</t>
+  </si>
+  <si>
+    <t>{123}</t>
+  </si>
+  <si>
+    <t>J.R.  That is very important.  Most of us have our hands ful</t>
+  </si>
+  <si>
+    <t>{124}</t>
+  </si>
+  <si>
+    <t>house admonishing each one of them with tears.  Is that not</t>
+  </si>
+  <si>
+    <t>{125}</t>
+  </si>
+  <si>
+    <t>writes, "Laying aside therefore all malice and all guile and</t>
+  </si>
+  <si>
+    <t>{126}</t>
+  </si>
+  <si>
+    <t>E.C.B.  One speaks humbly and carefully about these things,</t>
+  </si>
+  <si>
+    <t>{127}</t>
+  </si>
+  <si>
+    <t>S.E.H.  Would you say a word as to how the matter of oversee</t>
+  </si>
+  <si>
+    <t>{128}</t>
+  </si>
+  <si>
+    <t>Mary chose that part.  Is it not that element in a locality</t>
+  </si>
+  <si>
+    <t>{129}</t>
+  </si>
+  <si>
+    <t>particular source, whoever it is—right, wrong or intermediat</t>
+  </si>
+  <si>
+    <t>{130}</t>
+  </si>
+  <si>
+    <t>us who have seen things earlier who can help the brethren no</t>
+  </si>
+  <si>
+    <t>{131}</t>
+  </si>
+  <si>
+    <t>J.N.C.   Lowliness is safe, it keeps the brethren safe.  "Pu</t>
+  </si>
+  <si>
+    <t>{132}</t>
+  </si>
+  <si>
+    <t>H.G.H.  Is this word "by so much the more as ye see the day</t>
+  </si>
+  <si>
+    <t>{133}</t>
+  </si>
+  <si>
+    <t>very fine verse; it says, "Then"—that is the time when there</t>
+  </si>
+  <si>
+    <t>{134}</t>
+  </si>
+  <si>
+    <t>G.H.  I was going to ask you about the verse which says "The</t>
+  </si>
+  <si>
+    <t>{135}</t>
+  </si>
+  <si>
+    <t>were the subject of conversation in the hill­country of Judæ</t>
+  </si>
+  <si>
+    <t>{136}</t>
+  </si>
+  <si>
+    <t>precious it is to the Lord to see persons who are interested</t>
+  </si>
+  <si>
+    <t>{137}</t>
+  </si>
+  <si>
+    <t>J.McK.  I have seen paintings of Peter failing, walking on t</t>
+  </si>
+  <si>
+    <t>{138}</t>
+  </si>
+  <si>
+    <t>INTEREST IN THE THINGS OF GOD</t>
+  </si>
+  <si>
+    <t>{139}</t>
+  </si>
+  <si>
+    <t>it would involve for us what has been recovered in the truth</t>
+  </si>
+  <si>
+    <t>{140}</t>
+  </si>
+  <si>
+    <t>features are going to come to light?  That is a testing matt</t>
+  </si>
+  <si>
+    <t>{141}</t>
+  </si>
+  <si>
+    <t>J.R.  Such were strangers and sojourners.  They were strange</t>
+  </si>
+  <si>
+    <t>{142}</t>
+  </si>
+  <si>
+    <t>J.R.  If I am truly attached to the Person I will be interes</t>
+  </si>
+  <si>
+    <t>{143}</t>
+  </si>
+  <si>
+    <t>down and Jacob valued it.  He was like ourselves, he was not</t>
+  </si>
+  <si>
+    <t>{144}</t>
+  </si>
+  <si>
+    <t>J.R.  The consequences of despising the birthright, the inhe</t>
+  </si>
+  <si>
+    <t>{145}</t>
+  </si>
+  <si>
+    <t>G.D.P.  Nehemiah went to Jerusalem when it was in ruins, but</t>
+  </si>
+  <si>
+    <t>{146}</t>
+  </si>
+  <si>
+    <t>J.R.  I think that is true.  Yet you are sympathetic with yo</t>
+  </si>
+  <si>
+    <t>{147}</t>
+  </si>
+  <si>
+    <t>J.R.   There was something in Nehemiah he could consult, som</t>
+  </si>
+  <si>
+    <t>{148}</t>
+  </si>
+  <si>
+    <t>these things; we seek perhaps in our minds to measure them a</t>
+  </si>
+  <si>
+    <t>{149}</t>
+  </si>
+  <si>
+    <t>it ..."; he heard of it first and he was interested and valu</t>
+  </si>
+  <si>
+    <t>{150}</t>
+  </si>
+  <si>
+    <t>M.G.W.  Did you think that Urijah might have reminded David</t>
+  </si>
+  <si>
+    <t>{151}</t>
+  </si>
+  <si>
+    <t>J.R.  Exactly.  When the Lord was here every question the di</t>
+  </si>
+  <si>
+    <t>{152}</t>
+  </si>
+  <si>
+    <t>independency.  There is not one of us who does not need advi</t>
+  </si>
+  <si>
+    <t>{153}</t>
+  </si>
+  <si>
+    <t>says, "And when he had seen the vision, immediately we" (tha</t>
+  </si>
+  <si>
+    <t>{154}</t>
+  </si>
+  <si>
+    <t>most important: "when I sent you ... did ye lack anything?</t>
+  </si>
+  <si>
+    <t>{155}</t>
+  </si>
+  <si>
+    <t>J.R.  The brethren did not send them but they approved of th</t>
+  </si>
+  <si>
+    <t>{156}</t>
+  </si>
+  <si>
+    <t>KEEP THYSELF PURE</t>
+  </si>
+  <si>
+    <t>{157}</t>
+  </si>
+  <si>
+    <t>judgment is not judgment of self to satisfy self.  Self-judg</t>
+  </si>
+  <si>
+    <t>{158}</t>
+  </si>
+  <si>
+    <t>Now there is a pure heart, and that relates to the affection</t>
+  </si>
+  <si>
+    <t>{159}</t>
+  </si>
+  <si>
+    <t>but we need to be delivered from all such food and value the</t>
+  </si>
+  <si>
+    <t>{160}</t>
+  </si>
+  <si>
+    <t>In 1 Timothy—a very interesting scripture—we have "Keep thys</t>
+  </si>
+  <si>
+    <t>{161}</t>
+  </si>
+  <si>
+    <t>comes in in that context.  Then Asa, a good king who was gre</t>
+  </si>
+  <si>
+    <t>{162}</t>
+  </si>
+  <si>
+    <t>{163}</t>
+  </si>
+  <si>
+    <t>what exposes, exposes us to ourselves, for the most difficul</t>
+  </si>
+  <si>
+    <t>{164}</t>
+  </si>
+  <si>
+    <t>repent initially, but to be maintained as repenting sinners.</t>
+  </si>
+  <si>
+    <t>{165}</t>
+  </si>
+  <si>
+    <t>confusion, fragmentary conditions, few in some localities; i</t>
+  </si>
+  <si>
+    <t>{166}</t>
+  </si>
+  <si>
+    <t>that nothing can shake, available to us at any moment, no ma</t>
+  </si>
+  <si>
+    <t>{167}</t>
+  </si>
+  <si>
+    <t>the veil, that is, his flesh"; that was His death for the re</t>
+  </si>
+  <si>
+    <t>{168}</t>
+  </si>
+  <si>
+    <t>being consciously more and more in the presence of God, for</t>
+  </si>
+  <si>
+    <t>{169}</t>
+  </si>
+  <si>
+    <t>SATISFACTION</t>
+  </si>
+  <si>
+    <t>{170}</t>
+  </si>
+  <si>
+    <t>your attention to the blessed Man who has provided God with</t>
+  </si>
+  <si>
+    <t>{171}</t>
+  </si>
+  <si>
+    <t>what faced Him?  He recoiled; His holy nature as a Man recoi</t>
+  </si>
+  <si>
+    <t>{172}</t>
+  </si>
+  <si>
+    <t>because of His complete satisfaction in the finished work of</t>
+  </si>
+  <si>
+    <t>{173}</t>
+  </si>
+  <si>
+    <t>satisfaction apart from committal to the Lord Jesus and the</t>
+  </si>
+  <si>
+    <t>{174}</t>
+  </si>
+  <si>
+    <t>judgments are a great deep".  Oh, Jesus proved the great dee</t>
+  </si>
+  <si>
+    <t>{175}</t>
+  </si>
+  <si>
+    <t>house".  May the Lord help us to be exercised, and help us t</t>
+  </si>
+  <si>
+    <t>{176}</t>
+  </si>
+  <si>
+    <t>FULFILLED RESPONSIBILITY</t>
+  </si>
+  <si>
+    <t>{177}</t>
+  </si>
+  <si>
+    <t>attractive that idea is!  How attractive to the Lord to be a</t>
+  </si>
+  <si>
+    <t>{178}</t>
+  </si>
+  <si>
+    <t>hearken unto his voice", v 16, 17.  Is that our attitude?  I</t>
+  </si>
+  <si>
+    <t>{179}</t>
+  </si>
+  <si>
+    <t>ATTACHMENT BY GOD</t>
+  </si>
+  <si>
+    <t>{180}</t>
+  </si>
+  <si>
+    <t>addresses them as His children, He cared for them as a fathe</t>
+  </si>
+  <si>
+    <t>{181}</t>
+  </si>
+  <si>
+    <t>Father's love for His family, His committal to each one of u</t>
+  </si>
+  <si>
+    <t>{182}</t>
+  </si>
+  <si>
+    <t>THE INWARD MAN</t>
+  </si>
+  <si>
+    <t>{183}</t>
+  </si>
+  <si>
+    <t>For I delight in the law of God according to the inward man	{184}_x000D_
+the raven—it never returned, but the dove returned to him i</t>
+  </si>
+  <si>
+    <t>{185}</t>
+  </si>
+  <si>
+    <t>J.D.G.   When God established Adam in innocence, did he know</t>
+  </si>
+  <si>
+    <t>{186}</t>
+  </si>
+  <si>
+    <t>J.R.  Yes: also the power to say ‘No'—"but if, by the Spirit</t>
+  </si>
+  <si>
+    <t>{187}</t>
+  </si>
+  <si>
+    <t>J.D.G.  It is good to get the context of that scripture.  It</t>
+  </si>
+  <si>
+    <t>{188}</t>
+  </si>
+  <si>
+    <t>D.L.S.   Well, I would like to know more of it.</t>
+  </si>
+  <si>
+    <t>{189}</t>
+  </si>
+  <si>
+    <t>perishing, but the inward needs to be renewed, maintained in</t>
+  </si>
+  <si>
+    <t>{190}</t>
+  </si>
+  <si>
+    <t>R.S.R.  I was thinking of Jacob, "the God that shepherded me</t>
+  </si>
+  <si>
+    <t>{191}</t>
+  </si>
+  <si>
+    <t>was at the time, first came into touch with in Damascus.  Th</t>
+  </si>
+  <si>
+    <t>{192}</t>
+  </si>
+  <si>
+    <t>every word that goes out of God's mouth; a fresh impression</t>
+  </si>
+  <si>
+    <t>{193}</t>
+  </si>
+  <si>
+    <t>and depth and height" would be like the dominion of Isaac.</t>
+  </si>
+  <si>
+    <t>{194}</t>
+  </si>
+  <si>
+    <t>W.M.G.  Has it not been said that being "strengthened with p</t>
+  </si>
+  <si>
+    <t>{195}</t>
+  </si>
+  <si>
+    <t>R.S.R.  We sang this morning,</t>
+  </si>
+  <si>
+    <t>{196}</t>
+  </si>
+  <si>
+    <t>We need the Spirit.  It is through the Lord Jesus by one Spi</t>
+  </si>
+  <si>
+    <t>{197}</t>
+  </si>
+  <si>
+    <t>J.R.  Very good; it certainly would, "the love of the Christ</t>
+  </si>
+  <si>
+    <t>{198}</t>
+  </si>
+  <si>
+    <t>THE LORD'S DAY</t>
+  </si>
+  <si>
+    <t>{199}</t>
+  </si>
+  <si>
+    <t>rejoiceth as a strong man to run the race".  Think of the af</t>
+  </si>
+  <si>
+    <t>{200}</t>
+  </si>
+  <si>
+    <t>cometh Leaping upon the mountains, Skipping upon the hills".</t>
+  </si>
+  <si>
+    <t>{201}</t>
+  </si>
+  <si>
+    <t>PAUL'S PREACHING TO THE CORINTHIANS</t>
+  </si>
+  <si>
+    <t>{202}</t>
+  </si>
+  <si>
+    <t>it comes by way of repentance, and repentance is a deep work</t>
+  </si>
+  <si>
+    <t>{203}</t>
+  </si>
+  <si>
+    <t>to be forgiven our sins.  "Christ died for our sins, accordi</t>
+  </si>
+  <si>
+    <t>{204}</t>
+  </si>
+  <si>
+    <t>by Him, but He is raised from the dead, and the believer can</t>
+  </si>
+  <si>
+    <t>{205}</t>
+  </si>
+  <si>
+    <t>salvation, daily salvation, encouragement, hope: all we need</t>
+  </si>
+  <si>
+    <t>{206}</t>
+  </si>
+  <si>
+    <t>to have also in mind what the Son of God has in mind, and th</t>
+  </si>
+  <si>
+    <t>{207}</t>
+  </si>
+  <si>
+    <t>together, our blessing, but then "sealed us" in view of His</t>
+  </si>
+  <si>
+    <t>{208}</t>
+  </si>
+  <si>
+    <t>PERSONAL EXPERIENCE WITH GOD</t>
+  </si>
+  <si>
+    <t>{209}</t>
+  </si>
+  <si>
+    <t>It says, "I called unto him with my mouth".  That is prayer.</t>
+  </si>
+  <si>
+    <t>{210}</t>
+  </si>
+  <si>
+    <t>JESUS ALONE</t>
+  </si>
+  <si>
+    <t>{211}</t>
+  </si>
+  <si>
+    <t>indulge Himself, but "he that hates his life in this world s</t>
+  </si>
+  <si>
+    <t>{212}</t>
+  </si>
+  <si>
+    <t>SITTING, CLOTHED AND SENSIBLE</t>
+  </si>
+  <si>
+    <t>{213}</t>
+  </si>
+  <si>
+    <t>Eve, You are to blame, and Eve could not say to Adam, You we</t>
+  </si>
+  <si>
+    <t>{214}</t>
+  </si>
+  <si>
+    <t>to have this feature of being sensible, "of wise discretion"</t>
+  </si>
+  <si>
+    <t>{215}</t>
+  </si>
+  <si>
+    <t>E.D.S.  Is it a question of what influence we are under?  It</t>
+  </si>
+  <si>
+    <t>{216}</t>
+  </si>
+  <si>
+    <t>localities with a measure of faith.  It speaks in verse 3 ab</t>
+  </si>
+  <si>
+    <t>{217}</t>
+  </si>
+  <si>
+    <t>J.R.  It is the influence, the result of the appreciation of</t>
+  </si>
+  <si>
+    <t>{218}</t>
+  </si>
+  <si>
+    <t>J.R.   In fact he says so.  He says, "For I delight in the l</t>
+  </si>
+  <si>
+    <t>{219}</t>
+  </si>
+  <si>
+    <t>1 Corinthians 12.  It speaks about the human body, and Paul</t>
+  </si>
+  <si>
+    <t>{220}</t>
+  </si>
+  <si>
+    <t>P.G.  The present occasion would be an evidence of living re</t>
+  </si>
+  <si>
+    <t>{221}</t>
+  </si>
+  <si>
+    <t>but He has given us this kind of spirit—"of power, and of lo</t>
+  </si>
+  <si>
+    <t>{222}</t>
+  </si>
+  <si>
+    <t>J.R.  That is very good, but he was in his locality from the</t>
+  </si>
+  <si>
+    <t>{223}</t>
+  </si>
+  <si>
+    <t>J.R.  It is not a "spirit of cowardice"—which, I suppose, wa</t>
+  </si>
+  <si>
+    <t>{224}</t>
+  </si>
+  <si>
+    <t>J.R.  Exactly.  First of all it is to him: "to him that sitt</t>
+  </si>
+  <si>
+    <t>{225}</t>
+  </si>
+  <si>
+    <t>E.D.S.  Would it identify the principle at stake?</t>
+  </si>
+  <si>
+    <t>{226}</t>
+  </si>
+  <si>
+    <t>J.R.  Yes, God's rights in a locality.  It is a broken day i</t>
+  </si>
+  <si>
+    <t>{227}</t>
+  </si>
+  <si>
+    <t>J.N.M.  One of the tragedies we can look back on over the ye</t>
+  </si>
+  <si>
+    <t>{228}</t>
+  </si>
+  <si>
+    <t>D.A.S.  It says, "Let the elders who take the lead among the</t>
+  </si>
+  <si>
+    <t>{229}</t>
+  </si>
+  <si>
+    <t>J.N.M.  It is really a feature of the Lord's love for the sa</t>
+  </si>
+  <si>
+    <t>{230}</t>
+  </si>
+  <si>
+    <t>O YE OF LITTLE FAITH</t>
+  </si>
+  <si>
+    <t>{231}</t>
+  </si>
+  <si>
+    <t>if you lose your job, if you are unemployed; if some calamit</t>
+  </si>
+  <si>
+    <t>{232}</t>
+  </si>
+  <si>
+    <t>would hinder our committal to the kingdom of God and His rig</t>
+  </si>
+  <si>
+    <t>{233}</t>
+  </si>
+  <si>
+    <t>I have often wondered what these disciples ought to have don</t>
+  </si>
+  <si>
+    <t>{234}</t>
+  </si>
+  <si>
+    <t>We can always count on the Lord's priestly support and help</t>
+  </si>
+  <si>
+    <t>{235}</t>
+  </si>
+  <si>
+    <t>We often misunderstand, and do not gain sufficiently by how</t>
+  </si>
+  <si>
+    <t>{236}</t>
+  </si>
+  <si>
+    <t>THE DISCIPLE WHOM JESUS LOVED</t>
+  </si>
+  <si>
+    <t>{237}</t>
+  </si>
+  <si>
+    <t>routine—but the Lord intends that each one of us should get</t>
+  </si>
+  <si>
+    <t>{238}</t>
+  </si>
+  <si>
+    <t>J.R.   The access was by means of his sense of the Lord's lo</t>
+  </si>
+  <si>
+    <t>{239}</t>
+  </si>
+  <si>
+    <t>D.A.S.  I am sure that is right.  I was thinking of what was</t>
+  </si>
+  <si>
+    <t>{240}</t>
+  </si>
+  <si>
+    <t>J.R.  Exactly.  That is very important, the Spirit would fee</t>
+  </si>
+  <si>
+    <t>{241}</t>
+  </si>
+  <si>
+    <t>J.R.   We all do.  I think it involves the Lord's headship.</t>
+  </si>
+  <si>
+    <t>{242}</t>
+  </si>
+  <si>
+    <t>J.R.  Exactly, and he brought Peter in too.  It seems that J</t>
+  </si>
+  <si>
+    <t>{243}</t>
+  </si>
+  <si>
+    <t>of the cross.  Do you think we will value the family setting</t>
+  </si>
+  <si>
+    <t>{244}</t>
+  </si>
+  <si>
+    <t>J.N.M.  These Marys are the aristocracy of heaven.  Each one</t>
+  </si>
+  <si>
+    <t>{245}</t>
+  </si>
+  <si>
+    <t>tomb weeping without".  He says, I did not do too well, but</t>
+  </si>
+  <si>
+    <t>M.G.W.  We are told about the two disciples in verse 8: "The</t>
+  </si>
+  <si>
+    <t>J.R.  It is.  It is the word Peter used, "I am attached to t</t>
+  </si>
+  <si>
+    <t>J.M.M.  I am reminded of the earlier reference in John where</t>
+  </si>
+  <si>
+    <t>J.R.   Exactly; "That disciple therefore whom Jesus loved sa</t>
+  </si>
+  <si>
+    <t>patch, it is not that we get discouraged, but we can say, I</t>
+  </si>
+  <si>
+    <t>M.G.W.  I am glad you quote that because we sang that this m</t>
+  </si>
+  <si>
+    <t>HOW LUKE PRESENTS THE LORD JESUS</t>
+  </si>
+  <si>
+    <t>been completed.  Is that not glad tidings?  That God has fou</t>
+  </si>
+  <si>
+    <t>in the Lord Jesus Christ.  He has finished the work given to</t>
+  </si>
+  <si>
+    <t>Then the next thing that is emphasised is faith.  The Lord J</t>
+  </si>
+  <si>
+    <t>He is still lying on his couch, he is still paralysed, his s</t>
+  </si>
+  <si>
+    <t>set up, it will then be manifested that believers are forgiv</t>
+  </si>
+  <si>
+    <t>That is all I have to say.  There is abundant blessing avail</t>
+  </si>
+  <si>
+    <t>PERSONS TESTED BY THE ABSENCE OF CHRIST</t>
+  </si>
+  <si>
+    <t>appreciation of Him?  Therefore we are challenged and tested</t>
+  </si>
+  <si>
+    <t>In John 9 we have this very attractive man who was born blin</t>
+  </si>
+  <si>
+    <t>affection.  No one could satisfy her but Jesus.  He was abso</t>
+  </si>
+  <si>
+    <t>following.  The Lord would no doubt say to every one of us h</t>
+  </si>
+  <si>
+    <t>WHILE YE ARE WITH HIM</t>
+  </si>
+  <si>
+    <t>They were with Him.  At the end of the gospel it says, "the</t>
+  </si>
+  <si>
+    <t>PERSONS WHOM THE LORD COMMENDS</t>
+  </si>
+  <si>
+    <t>turning to the woman he said to Simon, the self-righteous</t>
+  </si>
+  <si>
+    <t>needs subjection on our part, it needs interest on our part.</t>
+  </si>
+  <si>
+    <t>There began to be mixture, there began to be worldly feature</t>
+  </si>
+  <si>
+    <t>hidden manna".  Oh, it is worthwhile overcoming in this worl</t>
+  </si>
+  <si>
+    <t>soul of the overcomer.  It belongs to him, he keeps it to hi</t>
+  </si>
+  <si>
+    <t>THE LORD JESUS CALLING PERSONS</t>
+  </si>
+  <si>
+    <t>sufferings and death of our Lord Jesus Christ, that is how s</t>
+  </si>
+  <si>
+    <t>done", John 4: 29.  Her whole history was settled once and f</t>
+  </si>
+  <si>
+    <t>disciples often failed, they often said the wrong thing; rea</t>
+  </si>
+  <si>
+    <t>that a little child shall lead them", Isa 11: 6.  The Lord s</t>
+  </si>
+  <si>
+    <t>Lord reviews His service in Galilee—He reviews the cities in</t>
+  </si>
+  <si>
+    <t>the Lord calls, He will give rest and you will find rest.  M</t>
+  </si>
+  <si>
+    <t>NOT OF LETTER, BUT OF SPIRIT</t>
+  </si>
+  <si>
+    <t>operation, entirely different from anything of nature, born</t>
+  </si>
+  <si>
+    <t>and give the Holy Spirit opportunity for its development so</t>
+  </si>
+  <si>
+    <t>{282}</t>
+  </si>
+  <si>
+    <t>testimony is under reproach; the spirit we have been given h</t>
+  </si>
+  <si>
+    <t>{283}</t>
+  </si>
+  <si>
+    <t>but love was there.  Our love which we have to all the saint</t>
+  </si>
+  <si>
+    <t>{284}</t>
+  </si>
+  <si>
+    <t>of wisdom and revelation in the full knowledge of Him?  I as</t>
+  </si>
+  <si>
+    <t>{285}</t>
+  </si>
+  <si>
+    <t>towards us who believe".  I just commend again what our brot</t>
+  </si>
+  <si>
+    <t>{286}</t>
+  </si>
+  <si>
+    <t>FOUR LIVING CREATURES</t>
+  </si>
+  <si>
+    <t>{287}</t>
+  </si>
+  <si>
+    <t>beginning God created the heavens and the earth", that was a</t>
+  </si>
+  <si>
+    <t>{288}</t>
+  </si>
+  <si>
+    <t>known the mind of the Lord, or who has been his counsellor?</t>
+  </si>
+  <si>
+    <t>{289}</t>
+  </si>
+  <si>
+    <t>THE NORMAL ACTIVITIES OF THE SPIRIT</t>
+  </si>
+  <si>
+    <t>mention of the cloud; they sang to the Spirit and from that</t>
+  </si>
+  <si>
+    <t>difficulties now are worked out locally.  So much depends on</t>
+  </si>
+  <si>
+    <t>J.R.   That is good.  Now that you have called attention to</t>
+  </si>
+  <si>
+    <t>{293}</t>
+  </si>
+  <si>
+    <t>C.F.D.  When the objective response to the Holy Spirit was b</t>
+  </si>
+  <si>
+    <t>not assert Himself; the desire has to come from our side and</t>
+  </si>
+  <si>
+    <t>J.A.P.  Is what you are saying that, when the well is sung t</t>
+  </si>
+  <si>
+    <t>and to be taught by Him.  In fact it goes on there to say, "</t>
+  </si>
+  <si>
+    <t>Lord was great enough to have the Spirit in its entirety, bu</t>
+  </si>
+  <si>
+    <t>J.R.  I think that is right and very important.</t>
+  </si>
+  <si>
+    <t>writing with him and the Corinthians—"we all".  What do you</t>
+  </si>
+  <si>
+    <t>G.D.P.  Do we see that in Stephen?  "But being full of the H</t>
+  </si>
+  <si>
+    <t>J.A.P.  I am helped by what you say.  Then it says, "but whe</t>
+  </si>
+  <si>
+    <t>J.R.  Yes, faith and the Spirit go together.  It has been sa</t>
+  </si>
+  <si>
+    <t>K.N.P.  Is the key the "looking on"?  Looking would be all t</t>
+  </si>
+  <si>
+    <t>EARLY PREACHINGS OF THE GOSPEL</t>
+  </si>
+  <si>
+    <t>fact, scripture tells us He was made sin.  It is difficult t</t>
+  </si>
+  <si>
+    <t>guilty sinners.  There were three thousand converted, but ea</t>
+  </si>
+  <si>
+    <t>finally and fully settled and will never rise again in our l</t>
+  </si>
+  <si>
+    <t>gives them an opportunity, but he says, There is no alternat</t>
+  </si>
+  <si>
+    <t>was in Jerusalem, and they sent out Barnabas to go through a</t>
+  </si>
+  <si>
+    <t>their way of thinking, and that forms assembly character, th</t>
+  </si>
+  <si>
+    <t>delicate food; why he selected the pulse and water; how he w</t>
+  </si>
+  <si>
+    <t>have our outlook in that direction and increase in the knowl</t>
+  </si>
+  <si>
+    <t>GOD'S MIND FOR MAN</t>
+  </si>
+  <si>
+    <t>promises which are not fulfilled: the Lord is coming to sett</t>
+  </si>
+  <si>
+    <t>It says in Matthew, "thou shalt call his name Jesus, for he</t>
+  </si>
+  <si>
+    <t>Now Mark tells us how that comes about, that is God's attitu</t>
+  </si>
+  <si>
+    <t>went out to him all the district of Judæa, and all they of J</t>
+  </si>
+  <si>
+    <t>going out to the sinner, providing for the sinner, removing</t>
+  </si>
+  <si>
+    <t>Well now, will you fit in there, dear friend?  How can you f</t>
+  </si>
+  <si>
+    <t>THE LORD'S RESORT</t>
+  </si>
+  <si>
+    <t>{322}</t>
+  </si>
+  <si>
+    <t>{323}</t>
+  </si>
+  <si>
+    <t>THE WELL AND THE CAMELS</t>
+  </si>
+  <si>
+    <t>{325}</t>
+  </si>
+  <si>
+    <t>Now that is one side of the matter; the other side is the ca</t>
+  </si>
+  <si>
+    <t>{326}</t>
+  </si>
+  <si>
+    <t>GATES LIFTED UP</t>
+  </si>
+  <si>
+    <t>{327}</t>
+  </si>
+  <si>
+    <t>day; how important it is that there should be something in o</t>
+  </si>
+  <si>
+    <t>{328}</t>
+  </si>
+  <si>
+    <t>{329}</t>
+  </si>
+  <si>
+    <t>{330}</t>
+  </si>
+  <si>
+    <t>"went away from out of their hand and departed again beyond</t>
   </si>
 </sst>
 </file>
@@ -484,10 +2031,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -804,549 +2354,2623 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D756F75-117D-4589-A963-F6E7419A4C4B}">
-  <dimension ref="A1:B67"/>
+  <dimension ref="A1:B328"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A61" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="35" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="6.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="69.21875" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.44140625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>223</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>224</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
-        <v>2</v>
+        <v>225</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>3</v>
+        <v>226</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>4</v>
+        <v>227</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>5</v>
+        <v>228</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
-        <v>6</v>
+        <v>229</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>7</v>
+        <v>230</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>231</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>232</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" s="1" t="s">
-        <v>10</v>
+        <v>233</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>234</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" s="1" t="s">
-        <v>12</v>
+        <v>235</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>13</v>
+        <v>236</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>237</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>15</v>
+        <v>238</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" s="1" t="s">
-        <v>16</v>
+        <v>239</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>240</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>18</v>
+        <v>241</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>19</v>
+        <v>242</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" s="1" t="s">
-        <v>20</v>
+        <v>243</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>21</v>
+        <v>244</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>22</v>
+        <v>245</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>23</v>
+        <v>246</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>24</v>
+        <v>67</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>25</v>
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" s="1" t="s">
-        <v>26</v>
+        <v>69</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>27</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" s="1" t="s">
-        <v>28</v>
+        <v>71</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>29</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>30</v>
+        <v>73</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>74</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" s="1" t="s">
-        <v>32</v>
+        <v>75</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>33</v>
+        <v>76</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" s="1" t="s">
-        <v>34</v>
+        <v>77</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>35</v>
+        <v>78</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" s="1" t="s">
-        <v>36</v>
+        <v>79</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>37</v>
+        <v>80</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1" t="s">
+        <v>81</v>
+      </c>
       <c r="B20" s="1" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" s="1" t="s">
-        <v>39</v>
+        <v>83</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>40</v>
+        <v>84</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" s="1" t="s">
-        <v>41</v>
+        <v>85</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>86</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" s="1" t="s">
-        <v>43</v>
+        <v>87</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>44</v>
+        <v>88</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" s="1" t="s">
-        <v>45</v>
+        <v>89</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>46</v>
+        <v>90</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" s="1" t="s">
-        <v>47</v>
+        <v>91</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>48</v>
+        <v>92</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" s="1" t="s">
-        <v>49</v>
+        <v>93</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>50</v>
+        <v>94</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" s="1" t="s">
-        <v>51</v>
+        <v>95</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>52</v>
+        <v>96</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" s="1" t="s">
-        <v>53</v>
+        <v>97</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>54</v>
+        <v>98</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" s="1" t="s">
-        <v>55</v>
+        <v>99</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>100</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" s="1" t="s">
-        <v>57</v>
+        <v>101</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>58</v>
+        <v>102</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="1" t="s">
-        <v>59</v>
+        <v>103</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>60</v>
+        <v>104</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" s="1" t="s">
-        <v>61</v>
+        <v>105</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>62</v>
+        <v>106</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="1" t="s">
-        <v>63</v>
+        <v>107</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>64</v>
+        <v>108</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="1" t="s">
-        <v>65</v>
+        <v>109</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>66</v>
+        <v>110</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>67</v>
+        <v>111</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>68</v>
+        <v>112</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="1" t="s">
-        <v>69</v>
+        <v>113</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>70</v>
+        <v>114</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="2" t="s">
-        <v>71</v>
+        <v>115</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>72</v>
+        <v>116</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="1" t="s">
-        <v>73</v>
+        <v>117</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>74</v>
+        <v>118</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="1" t="s">
-        <v>75</v>
+        <v>119</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>76</v>
+        <v>120</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="1" t="s">
-        <v>77</v>
+        <v>121</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>78</v>
+        <v>122</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" s="1" t="s">
-        <v>79</v>
+        <v>123</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>80</v>
+        <v>124</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" s="1" t="s">
-        <v>81</v>
+        <v>125</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>82</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" s="1" t="s">
-        <v>83</v>
+        <v>127</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>84</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" s="1" t="s">
-        <v>85</v>
+        <v>129</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>86</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" s="1" t="s">
-        <v>87</v>
+        <v>131</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>88</v>
+        <v>132</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" s="1" t="s">
-        <v>89</v>
+        <v>133</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>90</v>
+        <v>134</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" s="1" t="s">
-        <v>91</v>
+        <v>135</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>92</v>
+        <v>136</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" s="1" t="s">
-        <v>93</v>
+        <v>137</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>94</v>
+        <v>138</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="1" t="s">
-        <v>95</v>
+        <v>139</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>96</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="1" t="s">
-        <v>97</v>
+        <v>141</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>98</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="1" t="s">
-        <v>99</v>
+        <v>143</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>100</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="1" t="s">
-        <v>101</v>
+        <v>145</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>102</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="1" t="s">
-        <v>103</v>
+        <v>147</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>104</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="1" t="s">
-        <v>105</v>
+        <v>149</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>106</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
-        <v>107</v>
+        <v>151</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>108</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="1" t="s">
-        <v>109</v>
+        <v>153</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>110</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="1" t="s">
-        <v>111</v>
+        <v>155</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>112</v>
+        <v>156</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="1" t="s">
-        <v>113</v>
+        <v>157</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>114</v>
+        <v>158</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="1" t="s">
-        <v>115</v>
+        <v>159</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>116</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="1" t="s">
-        <v>117</v>
+        <v>161</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>118</v>
+        <v>162</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="1" t="s">
-        <v>119</v>
+        <v>163</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>120</v>
+        <v>164</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="1" t="s">
-        <v>121</v>
+        <v>165</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>122</v>
+        <v>166</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="1" t="s">
-        <v>123</v>
+        <v>167</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>124</v>
+        <v>168</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="1" t="s">
-        <v>125</v>
+        <v>169</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>126</v>
+        <v>170</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" s="1" t="s">
-        <v>127</v>
+        <v>171</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>128</v>
+        <v>172</v>
       </c>
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" s="1" t="s">
-        <v>129</v>
+        <v>173</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>130</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" s="1" t="s">
-        <v>131</v>
+        <v>175</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>132</v>
+        <v>176</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A68" s="1" t="s">
+        <v>177</v>
+      </c>
+      <c r="B68" s="1" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A69" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="B69" s="1" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A70" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="B70" s="1" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A71" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="B71" s="1" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A72" s="1" t="s">
+        <v>185</v>
+      </c>
+      <c r="B72" s="1" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A73" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A74" s="1" t="s">
+        <v>189</v>
+      </c>
+      <c r="B74" s="1" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A75" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B75" s="1" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A76" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="B76" s="1" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A77" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="B77" s="1" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A78" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="B78" s="1" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A79" s="1" t="s">
+        <v>199</v>
+      </c>
+      <c r="B79" s="1" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A80" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A81" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="B81" s="1" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A82" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B82" s="1" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A83" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B83" s="1" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A84" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B84" s="1" t="s">
+        <v>210</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A85" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B85" s="1" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A86" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B86" s="1" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A87" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A88" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="B88" s="1" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A89" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A90" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B90" s="1" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A91" s="1" t="s">
+        <v>247</v>
+      </c>
+      <c r="B91" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A92" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B92" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A93" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B93" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A94" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B94" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="95" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A95" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B95" s="1" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="96" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A96" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="B96" s="1" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="97" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A97" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B97" s="1" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="98" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A98" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="B98" s="1" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="99" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A99" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B99" s="1" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="100" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A100" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="101" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A101" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B101" s="1" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="102" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A102" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="103" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A103" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B103" s="1" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B104" s="1" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A105" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B105" s="1" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A106" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B106" s="1" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A107" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B107" s="1" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A108" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B108" s="1" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A109" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B109" s="1" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A110" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B110" s="1" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A111" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="B111" s="1" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A112" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B112" s="1" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A113" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B113" s="1" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A114" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B114" s="1" t="s">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A115" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B115" s="1" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A116" s="1" t="s">
+        <v>296</v>
+      </c>
+      <c r="B116" s="1" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A117" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B117" s="1" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A118" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B118" s="1" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A119" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B119" s="1" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A120" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B120" s="1" t="s">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A121" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B121" s="1" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A122" s="1" t="s">
+        <v>308</v>
+      </c>
+      <c r="B122" s="1" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A123" s="1" t="s">
+        <v>310</v>
+      </c>
+      <c r="B123" s="1" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A124" s="1" t="s">
+        <v>312</v>
+      </c>
+      <c r="B124" s="1" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A125" s="1" t="s">
+        <v>314</v>
+      </c>
+      <c r="B125" s="1" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A126" s="1" t="s">
+        <v>316</v>
+      </c>
+      <c r="B126" s="1" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A127" s="1" t="s">
+        <v>318</v>
+      </c>
+      <c r="B127" s="1" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A128" s="1" t="s">
+        <v>320</v>
+      </c>
+      <c r="B128" s="1" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A129" s="1" t="s">
+        <v>322</v>
+      </c>
+      <c r="B129" s="1" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A130" s="1" t="s">
+        <v>324</v>
+      </c>
+      <c r="B130" s="1" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A131" s="1" t="s">
+        <v>326</v>
+      </c>
+      <c r="B131" s="1" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A132" s="1" t="s">
+        <v>328</v>
+      </c>
+      <c r="B132" s="1" t="s">
+        <v>329</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A133" s="1" t="s">
+        <v>330</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A134" s="1" t="s">
+        <v>332</v>
+      </c>
+      <c r="B134" s="1" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A135" s="1" t="s">
+        <v>334</v>
+      </c>
+      <c r="B135" s="1" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A136" s="1" t="s">
+        <v>336</v>
+      </c>
+      <c r="B136" s="1" t="s">
+        <v>337</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A137" s="1" t="s">
+        <v>338</v>
+      </c>
+      <c r="B137" s="1" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A138" s="1" t="s">
+        <v>340</v>
+      </c>
+      <c r="B138" s="1" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A139" s="1" t="s">
+        <v>342</v>
+      </c>
+      <c r="B139" s="1" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A140" s="1" t="s">
+        <v>344</v>
+      </c>
+      <c r="B140" s="1" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="141" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A141" s="1" t="s">
+        <v>346</v>
+      </c>
+      <c r="B141" s="1" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A142" s="1" t="s">
+        <v>348</v>
+      </c>
+      <c r="B142" s="1" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A143" s="1" t="s">
+        <v>350</v>
+      </c>
+      <c r="B143" s="1" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A144" s="1" t="s">
+        <v>352</v>
+      </c>
+      <c r="B144" s="1" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A145" s="1" t="s">
+        <v>354</v>
+      </c>
+      <c r="B145" s="1" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A146" s="1" t="s">
+        <v>356</v>
+      </c>
+      <c r="B146" s="1" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A147" s="1" t="s">
+        <v>358</v>
+      </c>
+      <c r="B147" s="1" t="s">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A148" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="B148" s="1" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A149" s="1" t="s">
+        <v>362</v>
+      </c>
+      <c r="B149" s="1" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A150" s="1" t="s">
+        <v>364</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A151" s="1" t="s">
+        <v>366</v>
+      </c>
+      <c r="B151" s="1" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A152" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="B152" s="1" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A153" s="1" t="s">
+        <v>370</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A154" s="1" t="s">
+        <v>372</v>
+      </c>
+      <c r="B154" s="1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A155" s="1" t="s">
+        <v>374</v>
+      </c>
+      <c r="B155" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A156" s="1" t="s">
+        <v>376</v>
+      </c>
+      <c r="B156" s="1" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A157" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B157" s="1" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A158" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B158" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A159" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B159" s="1" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A160" s="1" t="s">
+        <v>384</v>
+      </c>
+      <c r="B160" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="161" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A161" s="1" t="s">
+        <v>386</v>
+      </c>
+      <c r="B161" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="162" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A162" s="1" t="s">
+        <v>388</v>
+      </c>
+      <c r="B162" s="1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="163" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B163" s="1" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="164" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A164" s="1" t="s">
+        <v>391</v>
+      </c>
+      <c r="B164" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="165" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A165" s="1" t="s">
+        <v>393</v>
+      </c>
+      <c r="B165" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="166" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A166" s="1" t="s">
+        <v>395</v>
+      </c>
+      <c r="B166" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="167" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A167" s="1" t="s">
+        <v>397</v>
+      </c>
+      <c r="B167" s="1" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="168" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A168" s="1" t="s">
+        <v>399</v>
+      </c>
+      <c r="B168" s="1" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="169" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A169" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B169" s="1" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="170" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A170" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B170" s="1" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="171" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A171" s="1" t="s">
+        <v>405</v>
+      </c>
+      <c r="B171" s="1" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="172" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A172" s="1" t="s">
+        <v>407</v>
+      </c>
+      <c r="B172" s="1" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="173" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A173" s="1" t="s">
+        <v>409</v>
+      </c>
+      <c r="B173" s="1" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="174" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A174" s="1" t="s">
+        <v>411</v>
+      </c>
+      <c r="B174" s="1" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="175" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A175" s="1" t="s">
+        <v>413</v>
+      </c>
+      <c r="B175" s="1" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="176" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A176" s="1" t="s">
+        <v>415</v>
+      </c>
+      <c r="B176" s="1" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="177" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A177" s="1" t="s">
+        <v>417</v>
+      </c>
+      <c r="B177" s="1" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="178" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A178" s="1" t="s">
+        <v>419</v>
+      </c>
+      <c r="B178" s="1" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="179" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A179" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B179" s="1" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="180" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A180" s="1" t="s">
+        <v>423</v>
+      </c>
+      <c r="B180" s="1" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="181" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A181" s="1" t="s">
+        <v>425</v>
+      </c>
+      <c r="B181" s="1" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="182" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A182" s="1" t="s">
+        <v>427</v>
+      </c>
+      <c r="B182" s="1" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="183" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A183" s="1" t="s">
+        <v>429</v>
+      </c>
+      <c r="B183" s="1" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A184" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="B184" s="1" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="185" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A185" s="1" t="s">
+        <v>433</v>
+      </c>
+      <c r="B185" s="1" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="186" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A186" s="1" t="s">
+        <v>435</v>
+      </c>
+      <c r="B186" s="1" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="187" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A187" s="1" t="s">
+        <v>437</v>
+      </c>
+      <c r="B187" s="1" t="s">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="188" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A188" s="1" t="s">
+        <v>439</v>
+      </c>
+      <c r="B188" s="1" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="189" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A189" s="1" t="s">
+        <v>441</v>
+      </c>
+      <c r="B189" s="1" t="s">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="190" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A190" s="1" t="s">
+        <v>443</v>
+      </c>
+      <c r="B190" s="1" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="191" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A191" s="1" t="s">
+        <v>445</v>
+      </c>
+      <c r="B191" s="1" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="192" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A192" s="1" t="s">
+        <v>447</v>
+      </c>
+      <c r="B192" s="1" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="193" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A193" s="1" t="s">
+        <v>449</v>
+      </c>
+      <c r="B193" s="1" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="194" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A194" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B194" s="1" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="195" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A195" s="1" t="s">
+        <v>453</v>
+      </c>
+      <c r="B195" s="1" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="196" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A196" s="1" t="s">
+        <v>455</v>
+      </c>
+      <c r="B196" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="197" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A197" s="1" t="s">
+        <v>457</v>
+      </c>
+      <c r="B197" s="1" t="s">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="198" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A198" s="1" t="s">
+        <v>459</v>
+      </c>
+      <c r="B198" s="1" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="199" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A199" s="1" t="s">
+        <v>461</v>
+      </c>
+      <c r="B199" s="1" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="200" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A200" s="1" t="s">
+        <v>463</v>
+      </c>
+      <c r="B200" s="1" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="201" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A201" s="1" t="s">
+        <v>465</v>
+      </c>
+      <c r="B201" s="1" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="202" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A202" s="1" t="s">
+        <v>467</v>
+      </c>
+      <c r="B202" s="1" t="s">
+        <v>468</v>
+      </c>
+    </row>
+    <row r="203" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A203" s="1" t="s">
+        <v>469</v>
+      </c>
+      <c r="B203" s="1" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="204" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A204" s="1" t="s">
+        <v>471</v>
+      </c>
+      <c r="B204" s="1" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="205" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A205" s="1" t="s">
+        <v>473</v>
+      </c>
+      <c r="B205" s="1" t="s">
+        <v>474</v>
+      </c>
+    </row>
+    <row r="206" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A206" s="1" t="s">
+        <v>475</v>
+      </c>
+      <c r="B206" s="1" t="s">
+        <v>476</v>
+      </c>
+    </row>
+    <row r="207" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A207" s="1" t="s">
+        <v>477</v>
+      </c>
+      <c r="B207" s="1" t="s">
+        <v>478</v>
+      </c>
+    </row>
+    <row r="208" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A208" s="1" t="s">
+        <v>479</v>
+      </c>
+      <c r="B208" s="1" t="s">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="209" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A209" s="1" t="s">
+        <v>481</v>
+      </c>
+      <c r="B209" s="1" t="s">
+        <v>482</v>
+      </c>
+    </row>
+    <row r="210" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A210" s="1" t="s">
+        <v>483</v>
+      </c>
+      <c r="B210" s="1" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="211" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A211" s="1" t="s">
+        <v>485</v>
+      </c>
+      <c r="B211" s="1" t="s">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="212" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A212" s="1" t="s">
+        <v>487</v>
+      </c>
+      <c r="B212" s="1" t="s">
+        <v>488</v>
+      </c>
+    </row>
+    <row r="213" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A213" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="B213" s="1" t="s">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="214" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A214" s="1" t="s">
+        <v>491</v>
+      </c>
+      <c r="B214" s="1" t="s">
+        <v>492</v>
+      </c>
+    </row>
+    <row r="215" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A215" s="1" t="s">
+        <v>493</v>
+      </c>
+      <c r="B215" s="1" t="s">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="216" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A216" s="1" t="s">
+        <v>495</v>
+      </c>
+      <c r="B216" s="1" t="s">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="217" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A217" s="1" t="s">
+        <v>497</v>
+      </c>
+      <c r="B217" s="1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="218" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A218" s="1" t="s">
+        <v>499</v>
+      </c>
+      <c r="B218" s="1" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="219" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A219" s="1" t="s">
+        <v>501</v>
+      </c>
+      <c r="B219" s="1" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="220" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A220" s="1" t="s">
+        <v>503</v>
+      </c>
+      <c r="B220" s="1" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="221" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A221" s="1" t="s">
+        <v>505</v>
+      </c>
+      <c r="B221" s="1" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="222" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A222" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="B222" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="223" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A223" s="1" t="s">
+        <v>509</v>
+      </c>
+      <c r="B223" s="1" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="224" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A224" s="1" t="s">
+        <v>511</v>
+      </c>
+      <c r="B224" s="1" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="225" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A225" s="1" t="s">
+        <v>513</v>
+      </c>
+      <c r="B225" s="1" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="226" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A226" s="1" t="s">
+        <v>515</v>
+      </c>
+      <c r="B226" s="1" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="227" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A227" s="1" t="s">
+        <v>517</v>
+      </c>
+      <c r="B227" s="1" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="228" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A228" s="1" t="s">
+        <v>519</v>
+      </c>
+      <c r="B228" s="1" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="229" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A229" s="1" t="s">
+        <v>521</v>
+      </c>
+      <c r="B229" s="1" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="230" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A230" s="1" t="s">
+        <v>523</v>
+      </c>
+      <c r="B230" s="1" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="231" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A231" s="1" t="s">
+        <v>525</v>
+      </c>
+      <c r="B231" s="1" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="232" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A232" s="1" t="s">
+        <v>527</v>
+      </c>
+      <c r="B232" s="1" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="233" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A233" s="1" t="s">
+        <v>529</v>
+      </c>
+      <c r="B233" s="1" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="234" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A234" s="1" t="s">
+        <v>531</v>
+      </c>
+      <c r="B234" s="1" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="235" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A235" s="1" t="s">
+        <v>533</v>
+      </c>
+      <c r="B235" s="1" t="s">
+        <v>534</v>
+      </c>
+    </row>
+    <row r="236" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A236" s="1" t="s">
+        <v>535</v>
+      </c>
+      <c r="B236" s="1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="237" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A237" s="1" t="s">
+        <v>537</v>
+      </c>
+      <c r="B237" s="1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="238" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A238" s="1" t="s">
+        <v>539</v>
+      </c>
+      <c r="B238" s="1" t="s">
+        <v>540</v>
+      </c>
+    </row>
+    <row r="239" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A239" s="1" t="s">
+        <v>541</v>
+      </c>
+      <c r="B239" s="1" t="s">
+        <v>542</v>
+      </c>
+    </row>
+    <row r="240" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A240" s="1" t="s">
+        <v>543</v>
+      </c>
+      <c r="B240" s="1" t="s">
+        <v>544</v>
+      </c>
+    </row>
+    <row r="241" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A241" s="1" t="s">
+        <v>545</v>
+      </c>
+      <c r="B241" s="1" t="s">
+        <v>546</v>
+      </c>
+    </row>
+    <row r="242" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A242" s="1" t="s">
+        <v>547</v>
+      </c>
+      <c r="B242" s="1" t="s">
+        <v>548</v>
+      </c>
+    </row>
+    <row r="243" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A243" s="1" t="s">
+        <v>549</v>
+      </c>
+      <c r="B243" s="1" t="s">
+        <v>550</v>
+      </c>
+    </row>
+    <row r="244" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A244" s="1" t="s">
+        <v>551</v>
+      </c>
+      <c r="B244" s="1" t="s">
+        <v>552</v>
+      </c>
+    </row>
+    <row r="245" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A245" s="1" t="s">
+        <v>553</v>
+      </c>
+      <c r="B245" s="1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A246" s="1" t="s">
+        <v>554</v>
+      </c>
+      <c r="B246" s="1" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="247" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A247" s="1" t="s">
+        <v>555</v>
+      </c>
+      <c r="B247" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="248" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A248" s="1" t="s">
+        <v>556</v>
+      </c>
+      <c r="B248" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="249" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A249" s="1" t="s">
+        <v>557</v>
+      </c>
+      <c r="B249" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="250" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A250" s="1" t="s">
+        <v>558</v>
+      </c>
+      <c r="B250" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="251" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A251" s="1" t="s">
+        <v>559</v>
+      </c>
+      <c r="B251" s="1" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="252" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A252" s="1" t="s">
+        <v>560</v>
+      </c>
+      <c r="B252" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="253" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A253" s="1" t="s">
+        <v>561</v>
+      </c>
+      <c r="B253" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="254" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A254" s="1" t="s">
+        <v>562</v>
+      </c>
+      <c r="B254" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="255" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A255" s="1" t="s">
+        <v>563</v>
+      </c>
+      <c r="B255" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="256" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A256" s="1" t="s">
+        <v>564</v>
+      </c>
+      <c r="B256" s="1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="257" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A257" s="1" t="s">
+        <v>565</v>
+      </c>
+      <c r="B257" s="1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="258" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A258" s="1" t="s">
+        <v>566</v>
+      </c>
+      <c r="B258" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="259" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A259" s="1" t="s">
+        <v>567</v>
+      </c>
+      <c r="B259" s="1" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="260" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A260" s="1" t="s">
+        <v>568</v>
+      </c>
+      <c r="B260" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="261" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A261" s="1" t="s">
+        <v>569</v>
+      </c>
+      <c r="B261" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="262" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A262" s="1" t="s">
+        <v>570</v>
+      </c>
+      <c r="B262" s="1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="263" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A263" s="1" t="s">
+        <v>571</v>
+      </c>
+      <c r="B263" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="264" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A264" s="1" t="s">
+        <v>572</v>
+      </c>
+      <c r="B264" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="265" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A265" s="1" t="s">
+        <v>573</v>
+      </c>
+      <c r="B265" s="1" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="266" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A266" s="1" t="s">
+        <v>574</v>
+      </c>
+      <c r="B266" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="267" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A267" s="1" t="s">
+        <v>575</v>
+      </c>
+      <c r="B267" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="268" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A268" s="1" t="s">
+        <v>576</v>
+      </c>
+      <c r="B268" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="269" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A269" s="1" t="s">
+        <v>577</v>
+      </c>
+      <c r="B269" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="270" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A270" s="1" t="s">
+        <v>578</v>
+      </c>
+      <c r="B270" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="271" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A271" s="1" t="s">
+        <v>579</v>
+      </c>
+      <c r="B271" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="272" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A272" s="1" t="s">
+        <v>580</v>
+      </c>
+      <c r="B272" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="273" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A273" s="1" t="s">
+        <v>581</v>
+      </c>
+      <c r="B273" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="274" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A274" s="1" t="s">
+        <v>582</v>
+      </c>
+      <c r="B274" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="275" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A275" s="1" t="s">
+        <v>583</v>
+      </c>
+      <c r="B275" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="276" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A276" s="1" t="s">
+        <v>584</v>
+      </c>
+      <c r="B276" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="277" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A277" s="1" t="s">
+        <v>585</v>
+      </c>
+      <c r="B277" s="1" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="278" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A278" s="1" t="s">
+        <v>586</v>
+      </c>
+      <c r="B278" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="279" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A279" s="1" t="s">
+        <v>587</v>
+      </c>
+      <c r="B279" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="280" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A280" s="1" t="s">
+        <v>588</v>
+      </c>
+      <c r="B280" s="1" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="281" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A281" s="1" t="s">
+        <v>589</v>
+      </c>
+      <c r="B281" s="1" t="s">
+        <v>590</v>
+      </c>
+    </row>
+    <row r="282" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A282" s="1" t="s">
+        <v>591</v>
+      </c>
+      <c r="B282" s="1" t="s">
+        <v>592</v>
+      </c>
+    </row>
+    <row r="283" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A283" s="1" t="s">
+        <v>593</v>
+      </c>
+      <c r="B283" s="1" t="s">
+        <v>594</v>
+      </c>
+    </row>
+    <row r="284" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A284" s="1" t="s">
+        <v>595</v>
+      </c>
+      <c r="B284" s="1" t="s">
+        <v>596</v>
+      </c>
+    </row>
+    <row r="285" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A285" s="1" t="s">
+        <v>597</v>
+      </c>
+      <c r="B285" s="1" t="s">
+        <v>598</v>
+      </c>
+    </row>
+    <row r="286" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A286" s="1" t="s">
+        <v>599</v>
+      </c>
+      <c r="B286" s="1" t="s">
+        <v>600</v>
+      </c>
+    </row>
+    <row r="287" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A287" s="1" t="s">
+        <v>601</v>
+      </c>
+      <c r="B287" s="1" t="s">
+        <v>602</v>
+      </c>
+    </row>
+    <row r="288" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A288" s="1" t="s">
+        <v>603</v>
+      </c>
+      <c r="B288" s="1" t="s">
+        <v>604</v>
+      </c>
+    </row>
+    <row r="289" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A289" s="1" t="s">
+        <v>605</v>
+      </c>
+      <c r="B289" s="1" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="290" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A290" s="1" t="s">
+        <v>606</v>
+      </c>
+      <c r="B290" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="291" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A291" s="1" t="s">
+        <v>607</v>
+      </c>
+      <c r="B291" s="1" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="292" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A292" s="1" t="s">
+        <v>608</v>
+      </c>
+      <c r="B292" s="1" t="s">
+        <v>609</v>
+      </c>
+    </row>
+    <row r="293" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A293" s="1" t="s">
+        <v>610</v>
+      </c>
+      <c r="B293" s="1" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="294" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A294" s="1" t="s">
+        <v>611</v>
+      </c>
+      <c r="B294" s="1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="295" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A295" s="1" t="s">
+        <v>612</v>
+      </c>
+      <c r="B295" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="296" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A296" s="1" t="s">
+        <v>613</v>
+      </c>
+      <c r="B296" s="1" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="297" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A297" s="1" t="s">
+        <v>614</v>
+      </c>
+      <c r="B297" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="298" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A298" s="1" t="s">
+        <v>615</v>
+      </c>
+      <c r="B298" s="1" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="299" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A299" s="1" t="s">
+        <v>616</v>
+      </c>
+      <c r="B299" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="300" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A300" s="1" t="s">
+        <v>617</v>
+      </c>
+      <c r="B300" s="1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="301" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A301" s="1" t="s">
+        <v>618</v>
+      </c>
+      <c r="B301" s="1" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="302" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A302" s="1" t="s">
+        <v>619</v>
+      </c>
+      <c r="B302" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="303" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A303" s="1" t="s">
+        <v>620</v>
+      </c>
+      <c r="B303" s="1" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="304" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A304" s="1" t="s">
+        <v>621</v>
+      </c>
+      <c r="B304" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="305" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A305" s="1" t="s">
+        <v>622</v>
+      </c>
+      <c r="B305" s="1" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="306" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A306" s="1" t="s">
+        <v>623</v>
+      </c>
+      <c r="B306" s="1" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="307" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A307" s="1" t="s">
+        <v>624</v>
+      </c>
+      <c r="B307" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="308" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A308" s="1" t="s">
+        <v>625</v>
+      </c>
+      <c r="B308" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="309" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A309" s="1" t="s">
+        <v>626</v>
+      </c>
+      <c r="B309" s="1" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="310" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A310" s="1" t="s">
+        <v>627</v>
+      </c>
+      <c r="B310" s="1" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="311" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B311" s="1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="312" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A312" s="1" t="s">
+        <v>628</v>
+      </c>
+      <c r="B312" s="1" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="313" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A313" s="1" t="s">
+        <v>629</v>
+      </c>
+      <c r="B313" s="1" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="314" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A314" s="1" t="s">
+        <v>630</v>
+      </c>
+      <c r="B314" s="1" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="315" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A315" s="1" t="s">
+        <v>631</v>
+      </c>
+      <c r="B315" s="1" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="316" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A316" s="1" t="s">
+        <v>632</v>
+      </c>
+      <c r="B316" s="1" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="317" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A317" s="1" t="s">
+        <v>633</v>
+      </c>
+      <c r="B317" s="1" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="318" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A318" s="1" t="s">
+        <v>634</v>
+      </c>
+      <c r="B318" s="1" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="319" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A319" s="1" t="s">
+        <v>635</v>
+      </c>
+      <c r="B319" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="320" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A320" s="1" t="s">
+        <v>636</v>
+      </c>
+      <c r="B320" s="1" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="321" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A321" s="1" t="s">
+        <v>637</v>
+      </c>
+      <c r="B321" s="1" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="322" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A322" s="3" t="s">
+        <v>650</v>
+      </c>
+      <c r="B322" s="1" t="s">
+        <v>639</v>
+      </c>
+    </row>
+    <row r="323" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A323" s="1" t="s">
+        <v>640</v>
+      </c>
+      <c r="B323" s="1" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="324" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A324" s="1" t="s">
+        <v>642</v>
+      </c>
+      <c r="B324" s="1" t="s">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="325" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A325" s="1" t="s">
+        <v>644</v>
+      </c>
+      <c r="B325" s="1" t="s">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="326" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A326" s="1" t="s">
+        <v>646</v>
+      </c>
+      <c r="B326" s="1" t="s">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="327" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B327" s="1" t="s">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="328" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="B328" s="1" t="s">
+        <v>649</v>
       </c>
     </row>
   </sheetData>

--- a/dev/text/ministry/Page Number Finder.xlsx
+++ b/dev/text/ministry/Page Number Finder.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\ministry\dev\text\ministry\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0754E4D1-C1A3-4CA1-A41A-16278E064EC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF7B626-3368-4AA7-B4D7-5CBD3AAAFF79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{78E5F7DC-C11E-49DB-B1EE-13CE08E681FE}"/>
+    <workbookView xWindow="3588" yWindow="3360" windowWidth="17280" windowHeight="8880" xr2:uid="{78E5F7DC-C11E-49DB-B1EE-13CE08E681FE}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -2356,7 +2356,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5D756F75-117D-4589-A963-F6E7419A4C4B}">
   <dimension ref="A1:B328"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A130" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -3822,7 +3824,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="184" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:2" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A184" s="2" t="s">
         <v>431</v>
       </c>
